--- a/Documents/Timelog.xlsx
+++ b/Documents/Timelog.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Time" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Phase Totals" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Tasks!$B$2:$I$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Tasks!$B$1:$I$1</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="151">
   <si>
     <t>Date</t>
   </si>
@@ -393,6 +393,90 @@
   </si>
   <si>
     <t>Finished making presentation</t>
+  </si>
+  <si>
+    <t>Prepared for the presentation and presented</t>
+  </si>
+  <si>
+    <t>Setup Phase 3</t>
+  </si>
+  <si>
+    <t>Fix Action Items</t>
+  </si>
+  <si>
+    <t>Create User Manual</t>
+  </si>
+  <si>
+    <t>Write User Manual</t>
+  </si>
+  <si>
+    <t>Review User Manual</t>
+  </si>
+  <si>
+    <t>Create Component Design</t>
+  </si>
+  <si>
+    <t>Write Component Design</t>
+  </si>
+  <si>
+    <t>Review Component Design</t>
+  </si>
+  <si>
+    <t>Create Assessment Evaluation (Test Report)</t>
+  </si>
+  <si>
+    <t>Write Assessment Evaluation (Test Report)</t>
+  </si>
+  <si>
+    <t>Review Assessment Evaluation (Test Report)</t>
+  </si>
+  <si>
+    <t>Create Project Evaluation</t>
+  </si>
+  <si>
+    <t>Write Project Evaluation</t>
+  </si>
+  <si>
+    <t>Review Project Evaluation</t>
+  </si>
+  <si>
+    <t>Create and Write References</t>
+  </si>
+  <si>
+    <t>Review Inspection Letters</t>
+  </si>
+  <si>
+    <t>Fix Issues from Insepctions as needed</t>
+  </si>
+  <si>
+    <t>Develop Final Program</t>
+  </si>
+  <si>
+    <t>Create Final Presentation</t>
+  </si>
+  <si>
+    <t>User Manual</t>
+  </si>
+  <si>
+    <t>Component Design</t>
+  </si>
+  <si>
+    <t>Assessment Evaluation</t>
+  </si>
+  <si>
+    <t>Project Evaluation</t>
+  </si>
+  <si>
+    <t>Phase 3 Presentation</t>
+  </si>
+  <si>
+    <t>PHASE 3</t>
+  </si>
+  <si>
+    <t>Technical Inspection</t>
+  </si>
+  <si>
+    <t>Setup for Phase 3</t>
   </si>
 </sst>
 </file>
@@ -862,6 +946,21 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -883,27 +982,52 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1294,10 +1418,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E190"/>
+  <dimension ref="B1:E189"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="H69" sqref="H69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1306,238 +1431,251 @@
     <col min="2" max="2" width="12.75" customWidth="1"/>
     <col min="3" max="3" width="6.625" customWidth="1"/>
     <col min="4" max="4" width="4.375" customWidth="1"/>
-    <col min="5" max="5" width="132.125" style="42" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="132.125" style="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="2" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="43" t="s">
-        <v>12</v>
+      <c r="B2" s="14">
+        <v>42529</v>
+      </c>
+      <c r="C2" s="11">
+        <v>1</v>
+      </c>
+      <c r="D2" s="11">
+        <v>1</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="14">
-        <v>42529</v>
+        <v>42531</v>
       </c>
       <c r="C3" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="11">
         <v>1</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="37" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="14">
-        <v>42531</v>
-      </c>
-      <c r="C4" s="11">
+      <c r="B4" s="13">
+        <v>42533</v>
+      </c>
+      <c r="C4" s="8">
         <v>2</v>
       </c>
-      <c r="D4" s="11">
-        <v>1</v>
-      </c>
-      <c r="E4" s="44" t="s">
+      <c r="D4" s="8">
+        <v>1</v>
+      </c>
+      <c r="E4" s="38" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="13">
-        <v>42533</v>
+        <v>42537</v>
       </c>
       <c r="C5" s="8">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="D5" s="8">
-        <v>1</v>
-      </c>
-      <c r="E5" s="45" t="s">
-        <v>36</v>
+        <v>0</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="13">
+      <c r="B6" s="14">
         <v>42537</v>
       </c>
-      <c r="C6" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0</v>
-      </c>
-      <c r="E6" s="45" t="s">
-        <v>21</v>
-      </c>
+      <c r="C6" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="D6" s="11">
+        <v>1</v>
+      </c>
+      <c r="E6" s="37"/>
     </row>
     <row r="7" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="14">
-        <v>42537</v>
+        <v>42539</v>
       </c>
       <c r="C7" s="11">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="D7" s="11">
-        <v>1</v>
-      </c>
-      <c r="E7" s="44"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="8" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="14">
+      <c r="B8" s="13">
         <v>42539</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="8">
         <v>0.5</v>
       </c>
-      <c r="D8" s="11">
-        <v>0</v>
-      </c>
-      <c r="E8" s="44" t="s">
-        <v>22</v>
-      </c>
+      <c r="D8" s="8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="38"/>
     </row>
     <row r="9" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="13">
-        <v>42539</v>
+        <v>42540</v>
       </c>
       <c r="C9" s="8">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="D9" s="8">
-        <v>1</v>
-      </c>
-      <c r="E9" s="45"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="13">
+      <c r="B10" s="14">
         <v>42540</v>
       </c>
-      <c r="C10" s="8">
-        <v>2.5</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0</v>
-      </c>
-      <c r="E10" s="45" t="s">
-        <v>35</v>
-      </c>
+      <c r="C10" s="11">
+        <v>1</v>
+      </c>
+      <c r="D10" s="11">
+        <v>1</v>
+      </c>
+      <c r="E10" s="37"/>
     </row>
     <row r="11" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="14">
         <v>42540</v>
       </c>
       <c r="C11" s="11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D11" s="11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="44"/>
+        <v>11</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="12" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <v>42540</v>
       </c>
-      <c r="C12" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="D12" s="11">
-        <v>11</v>
-      </c>
-      <c r="E12" s="44" t="s">
-        <v>37</v>
-      </c>
+      <c r="C12" s="8">
+        <v>1.25</v>
+      </c>
+      <c r="D12" s="8">
+        <v>2</v>
+      </c>
+      <c r="E12" s="38"/>
     </row>
     <row r="13" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="13">
-        <v>42540</v>
+        <v>42542</v>
       </c>
       <c r="C13" s="8">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="D13" s="8">
-        <v>2</v>
-      </c>
-      <c r="E13" s="45"/>
+        <v>3</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="14" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="13">
-        <v>42542</v>
-      </c>
-      <c r="C14" s="8">
-        <v>1</v>
-      </c>
-      <c r="D14" s="8">
+      <c r="B14" s="14">
+        <v>42543</v>
+      </c>
+      <c r="C14" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="D14" s="11">
         <v>3</v>
       </c>
-      <c r="E14" s="45" t="s">
-        <v>38</v>
+      <c r="E14" s="37" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="14">
-        <v>42543</v>
+        <v>42544</v>
       </c>
       <c r="C15" s="11">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="D15" s="11">
         <v>3</v>
       </c>
-      <c r="E15" s="44" t="s">
-        <v>47</v>
+      <c r="E15" s="37" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="14">
-        <v>42544</v>
-      </c>
-      <c r="C16" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="D16" s="11">
+      <c r="B16" s="13">
+        <v>42545</v>
+      </c>
+      <c r="C16" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="D16" s="8">
         <v>3</v>
       </c>
-      <c r="E16" s="44" t="s">
-        <v>48</v>
+      <c r="E16" s="38" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="13">
-        <v>42545</v>
+        <v>42547</v>
       </c>
       <c r="C17" s="8">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D17" s="8">
         <v>3</v>
       </c>
-      <c r="E17" s="45" t="s">
-        <v>49</v>
+      <c r="E17" s="38" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="13">
+      <c r="B18" s="14">
         <v>42547</v>
       </c>
-      <c r="C18" s="8">
-        <v>1</v>
-      </c>
-      <c r="D18" s="8">
+      <c r="C18" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="D18" s="11">
         <v>3</v>
       </c>
-      <c r="E18" s="45" t="s">
-        <v>50</v>
+      <c r="E18" s="37" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1545,53 +1683,53 @@
         <v>42547</v>
       </c>
       <c r="C19" s="11">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="D19" s="11">
-        <v>3</v>
-      </c>
-      <c r="E19" s="44" t="s">
-        <v>51</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E19" s="37"/>
     </row>
     <row r="20" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="14">
-        <v>42547</v>
-      </c>
-      <c r="C20" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="D20" s="11">
-        <v>5</v>
-      </c>
-      <c r="E20" s="44"/>
+      <c r="B20" s="13">
+        <v>42548</v>
+      </c>
+      <c r="C20" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="D20" s="8">
+        <v>6</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="21" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="13">
-        <v>42548</v>
+        <v>42549</v>
       </c>
       <c r="C21" s="8">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="D21" s="8">
         <v>6</v>
       </c>
-      <c r="E21" s="45" t="s">
-        <v>52</v>
+      <c r="E21" s="38" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="13">
-        <v>42549</v>
-      </c>
-      <c r="C22" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="D22" s="8">
+      <c r="B22" s="14">
+        <v>42553</v>
+      </c>
+      <c r="C22" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="11">
         <v>6</v>
       </c>
-      <c r="E22" s="45" t="s">
-        <v>53</v>
+      <c r="E22" s="37" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1602,83 +1740,81 @@
         <v>0.5</v>
       </c>
       <c r="D23" s="11">
+        <v>4</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="13">
+        <v>42554</v>
+      </c>
+      <c r="C24" s="8">
+        <v>2</v>
+      </c>
+      <c r="D24" s="8">
         <v>6</v>
       </c>
-      <c r="E23" s="44" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="14">
-        <v>42553</v>
-      </c>
-      <c r="C24" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="D24" s="11">
-        <v>4</v>
-      </c>
-      <c r="E24" s="44" t="s">
-        <v>55</v>
+      <c r="E24" s="38" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="13">
-        <v>42554</v>
+        <v>42555</v>
       </c>
       <c r="C25" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" s="8">
         <v>6</v>
       </c>
-      <c r="E25" s="45" t="s">
-        <v>56</v>
+      <c r="E25" s="38" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="13">
+      <c r="B26" s="14">
         <v>42555</v>
       </c>
-      <c r="C26" s="8">
-        <v>1</v>
-      </c>
-      <c r="D26" s="8">
-        <v>6</v>
-      </c>
-      <c r="E26" s="45" t="s">
-        <v>57</v>
-      </c>
+      <c r="C26" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="D26" s="11">
+        <v>8</v>
+      </c>
+      <c r="E26" s="37"/>
     </row>
     <row r="27" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="14">
         <v>42555</v>
       </c>
       <c r="C27" s="11">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="D27" s="11">
-        <v>8</v>
-      </c>
-      <c r="E27" s="44"/>
+        <v>9</v>
+      </c>
+      <c r="E27" s="37" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="28" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="14">
-        <v>42555</v>
-      </c>
-      <c r="C28" s="11">
-        <v>3</v>
-      </c>
-      <c r="D28" s="11">
-        <v>9</v>
-      </c>
-      <c r="E28" s="44" t="s">
-        <v>58</v>
-      </c>
+      <c r="B28" s="13">
+        <v>42560</v>
+      </c>
+      <c r="C28" s="8">
+        <v>2</v>
+      </c>
+      <c r="D28" s="8">
+        <v>11</v>
+      </c>
+      <c r="E28" s="38"/>
     </row>
     <row r="29" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="13">
-        <v>42560</v>
+        <v>42563</v>
       </c>
       <c r="C29" s="8">
         <v>2</v>
@@ -1686,19 +1822,19 @@
       <c r="D29" s="8">
         <v>11</v>
       </c>
-      <c r="E29" s="45"/>
+      <c r="E29" s="38"/>
     </row>
     <row r="30" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="13">
-        <v>42563</v>
-      </c>
-      <c r="C30" s="8">
-        <v>2</v>
-      </c>
-      <c r="D30" s="8">
-        <v>11</v>
-      </c>
-      <c r="E30" s="45"/>
+      <c r="B30" s="14">
+        <v>42564</v>
+      </c>
+      <c r="C30" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="D30" s="11">
+        <v>7</v>
+      </c>
+      <c r="E30" s="37"/>
     </row>
     <row r="31" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="14">
@@ -1708,109 +1844,111 @@
         <v>0.5</v>
       </c>
       <c r="D31" s="11">
-        <v>7</v>
-      </c>
-      <c r="E31" s="44"/>
+        <v>10</v>
+      </c>
+      <c r="E31" s="37"/>
     </row>
     <row r="32" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="14">
+      <c r="B32" s="13">
         <v>42564</v>
       </c>
-      <c r="C32" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="D32" s="11">
-        <v>10</v>
-      </c>
-      <c r="E32" s="44"/>
+      <c r="C32" s="8">
+        <v>4</v>
+      </c>
+      <c r="D32" s="8">
+        <v>11</v>
+      </c>
+      <c r="E32" s="38" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="33" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="13">
-        <v>42564</v>
+        <v>42566</v>
       </c>
       <c r="C33" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D33" s="8">
         <v>11</v>
       </c>
-      <c r="E33" s="45" t="s">
-        <v>59</v>
+      <c r="E33" s="38" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="13">
-        <v>42566</v>
-      </c>
-      <c r="C34" s="8">
-        <v>1</v>
-      </c>
-      <c r="D34" s="8">
+      <c r="B34" s="14">
+        <v>42567</v>
+      </c>
+      <c r="C34" s="11">
+        <v>4</v>
+      </c>
+      <c r="D34" s="11">
         <v>11</v>
       </c>
-      <c r="E34" s="45" t="s">
-        <v>62</v>
+      <c r="E34" s="37" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="14">
-        <v>42567</v>
+        <v>42568</v>
       </c>
       <c r="C35" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D35" s="11">
         <v>11</v>
       </c>
-      <c r="E35" s="44" t="s">
-        <v>60</v>
+      <c r="E35" s="37" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="14">
-        <v>42568</v>
-      </c>
-      <c r="C36" s="11">
-        <v>1</v>
-      </c>
-      <c r="D36" s="11">
+      <c r="B36" s="13">
+        <v>42569</v>
+      </c>
+      <c r="C36" s="8">
+        <v>2</v>
+      </c>
+      <c r="D36" s="8">
         <v>11</v>
       </c>
-      <c r="E36" s="44" t="s">
-        <v>61</v>
+      <c r="E36" s="38" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="13">
-        <v>42569</v>
+        <v>42570</v>
       </c>
       <c r="C37" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" s="8">
         <v>11</v>
       </c>
-      <c r="E37" s="45" t="s">
-        <v>63</v>
+      <c r="E37" s="38" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="13">
-        <v>42570</v>
-      </c>
-      <c r="C38" s="8">
-        <v>4</v>
-      </c>
-      <c r="D38" s="8">
+      <c r="B38" s="14">
+        <v>42571</v>
+      </c>
+      <c r="C38" s="11">
+        <v>3</v>
+      </c>
+      <c r="D38" s="11">
         <v>11</v>
       </c>
-      <c r="E38" s="45" t="s">
-        <v>64</v>
+      <c r="E38" s="37" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="14">
-        <v>42571</v>
+        <v>42573</v>
       </c>
       <c r="C39" s="11">
         <v>3</v>
@@ -1818,84 +1956,84 @@
       <c r="D39" s="11">
         <v>11</v>
       </c>
-      <c r="E39" s="44" t="s">
-        <v>65</v>
+      <c r="E39" s="37" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="14">
-        <v>42573</v>
-      </c>
-      <c r="C40" s="11">
-        <v>3</v>
-      </c>
-      <c r="D40" s="11">
-        <v>11</v>
-      </c>
-      <c r="E40" s="44" t="s">
-        <v>66</v>
+      <c r="B40" s="13">
+        <v>42574</v>
+      </c>
+      <c r="C40" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="D40" s="8">
+        <v>12</v>
+      </c>
+      <c r="E40" s="38" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="13">
-        <v>42574</v>
+        <v>42575</v>
       </c>
       <c r="C41" s="8">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="D41" s="8">
         <v>12</v>
       </c>
-      <c r="E41" s="45" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="13">
-        <v>42575</v>
-      </c>
-      <c r="C42" s="8">
-        <v>5</v>
-      </c>
-      <c r="D42" s="8">
-        <v>12</v>
-      </c>
-      <c r="E42" s="45" t="s">
+      <c r="E41" s="38" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="2:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="33"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="46"/>
+    <row r="42" spans="2:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="33"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="39"/>
+    </row>
+    <row r="43" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="13">
+        <v>42605</v>
+      </c>
+      <c r="C43" s="8">
+        <v>4</v>
+      </c>
+      <c r="D43" s="8">
+        <v>32</v>
+      </c>
+      <c r="E43" s="38" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="44" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="13">
-        <v>42605</v>
+        <v>42607</v>
       </c>
       <c r="C44" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" s="8">
-        <v>32</v>
-      </c>
-      <c r="E44" s="45" t="s">
-        <v>96</v>
+        <v>31</v>
+      </c>
+      <c r="E44" s="38" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="13">
-        <v>42607</v>
-      </c>
-      <c r="C45" s="8">
-        <v>2</v>
-      </c>
-      <c r="D45" s="8">
-        <v>31</v>
-      </c>
-      <c r="E45" s="45" t="s">
-        <v>97</v>
+      <c r="B45" s="14">
+        <v>42610</v>
+      </c>
+      <c r="C45" s="11">
+        <v>1</v>
+      </c>
+      <c r="D45" s="11">
+        <v>13</v>
+      </c>
+      <c r="E45" s="37" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1903,140 +2041,138 @@
         <v>42610</v>
       </c>
       <c r="C46" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D46" s="11">
-        <v>13</v>
-      </c>
-      <c r="E46" s="44" t="s">
-        <v>95</v>
+        <v>31</v>
+      </c>
+      <c r="E46" s="37" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="14">
-        <v>42610</v>
-      </c>
-      <c r="C47" s="11">
-        <v>2</v>
-      </c>
-      <c r="D47" s="11">
+      <c r="B47" s="13">
+        <v>42612</v>
+      </c>
+      <c r="C47" s="8">
+        <v>4</v>
+      </c>
+      <c r="D47" s="8">
         <v>31</v>
       </c>
-      <c r="E47" s="44" t="s">
-        <v>102</v>
+      <c r="E47" s="38" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="48" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="13">
-        <v>42612</v>
+        <v>42618</v>
       </c>
       <c r="C48" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" s="8">
-        <v>31</v>
-      </c>
-      <c r="E48" s="45" t="s">
-        <v>103</v>
+        <v>12</v>
+      </c>
+      <c r="E48" s="38" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="13">
-        <v>42618</v>
-      </c>
-      <c r="C49" s="8">
-        <v>2</v>
-      </c>
-      <c r="D49" s="8">
+      <c r="B49" s="14">
+        <v>42619</v>
+      </c>
+      <c r="C49" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="D49" s="11">
         <v>12</v>
       </c>
-      <c r="E49" s="45" t="s">
-        <v>104</v>
+      <c r="E49" s="37" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="14">
-        <v>42619</v>
+        <v>42624</v>
       </c>
       <c r="C50" s="11">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="D50" s="11">
-        <v>12</v>
-      </c>
-      <c r="E50" s="44" t="s">
-        <v>105</v>
+        <v>18</v>
+      </c>
+      <c r="E50" s="37" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="14">
+      <c r="B51" s="13">
         <v>42624</v>
       </c>
-      <c r="C51" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="D51" s="11">
-        <v>18</v>
-      </c>
-      <c r="E51" s="44" t="s">
-        <v>106</v>
+      <c r="C51" s="8">
+        <v>1</v>
+      </c>
+      <c r="D51" s="8">
+        <v>19</v>
+      </c>
+      <c r="E51" s="38" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="13">
-        <v>42624</v>
+        <v>42630</v>
       </c>
       <c r="C52" s="8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D52" s="8">
-        <v>19</v>
-      </c>
-      <c r="E52" s="45" t="s">
-        <v>107</v>
+        <v>14</v>
+      </c>
+      <c r="E52" s="38" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="13">
+      <c r="B53" s="14">
         <v>42630</v>
       </c>
-      <c r="C53" s="8">
+      <c r="C53" s="11">
         <v>0.5</v>
       </c>
-      <c r="D53" s="8">
-        <v>14</v>
-      </c>
-      <c r="E53" s="45" t="s">
-        <v>109</v>
+      <c r="D53" s="11">
+        <v>16</v>
+      </c>
+      <c r="E53" s="37" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="54" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="14">
-        <v>42630</v>
+        <v>42631</v>
       </c>
       <c r="C54" s="11">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="D54" s="11">
-        <v>16</v>
-      </c>
-      <c r="E54" s="44" t="s">
-        <v>110</v>
+        <v>19</v>
+      </c>
+      <c r="E54" s="37" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="14">
+      <c r="B55" s="13">
         <v>42631</v>
       </c>
-      <c r="C55" s="11">
-        <v>3.5</v>
-      </c>
-      <c r="D55" s="11">
-        <v>19</v>
-      </c>
-      <c r="E55" s="44" t="s">
-        <v>108</v>
-      </c>
+      <c r="C55" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="D55" s="8">
+        <v>15</v>
+      </c>
+      <c r="E55" s="38"/>
     </row>
     <row r="56" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="13">
@@ -2046,53 +2182,55 @@
         <v>0.2</v>
       </c>
       <c r="D56" s="8">
-        <v>15</v>
-      </c>
-      <c r="E56" s="45"/>
+        <v>17</v>
+      </c>
+      <c r="E56" s="38"/>
     </row>
     <row r="57" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="13">
-        <v>42631</v>
-      </c>
-      <c r="C57" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="D57" s="8">
-        <v>17</v>
-      </c>
-      <c r="E57" s="45"/>
+      <c r="B57" s="14">
+        <v>42638</v>
+      </c>
+      <c r="C57" s="11">
+        <v>1</v>
+      </c>
+      <c r="D57" s="11">
+        <v>21</v>
+      </c>
+      <c r="E57" s="37" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="58" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="14">
         <v>42638</v>
       </c>
       <c r="C58" s="11">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="D58" s="11">
-        <v>21</v>
-      </c>
-      <c r="E58" s="44" t="s">
-        <v>111</v>
+        <v>22</v>
+      </c>
+      <c r="E58" s="37" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="59" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="14">
-        <v>42638</v>
-      </c>
-      <c r="C59" s="11">
-        <v>2.5</v>
-      </c>
-      <c r="D59" s="11">
+      <c r="B59" s="13">
+        <v>42640</v>
+      </c>
+      <c r="C59" s="8">
+        <v>1</v>
+      </c>
+      <c r="D59" s="8">
         <v>22</v>
       </c>
-      <c r="E59" s="44" t="s">
-        <v>112</v>
+      <c r="E59" s="38" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="60" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="13">
-        <v>42640</v>
+        <v>42641</v>
       </c>
       <c r="C60" s="8">
         <v>1</v>
@@ -2100,150 +2238,150 @@
       <c r="D60" s="8">
         <v>22</v>
       </c>
-      <c r="E60" s="45" t="s">
+      <c r="E60" s="38" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="61" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="13">
-        <v>42641</v>
-      </c>
-      <c r="C61" s="8">
-        <v>1</v>
-      </c>
-      <c r="D61" s="8">
-        <v>22</v>
-      </c>
-      <c r="E61" s="45" t="s">
-        <v>113</v>
-      </c>
+      <c r="B61" s="14">
+        <v>42644</v>
+      </c>
+      <c r="C61" s="11">
+        <v>1</v>
+      </c>
+      <c r="D61" s="11">
+        <v>20</v>
+      </c>
+      <c r="E61" s="37"/>
     </row>
     <row r="62" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="14">
-        <v>42644</v>
+        <v>42645</v>
       </c>
       <c r="C62" s="11">
         <v>1</v>
       </c>
       <c r="D62" s="11">
-        <v>20</v>
-      </c>
-      <c r="E62" s="44"/>
+        <v>22</v>
+      </c>
+      <c r="E62" s="37" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="63" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="14">
-        <v>42645</v>
-      </c>
-      <c r="C63" s="11">
-        <v>1</v>
-      </c>
-      <c r="D63" s="11">
+      <c r="B63" s="13">
+        <v>42651</v>
+      </c>
+      <c r="C63" s="8">
+        <v>4</v>
+      </c>
+      <c r="D63" s="8">
         <v>22</v>
       </c>
-      <c r="E63" s="44" t="s">
-        <v>114</v>
+      <c r="E63" s="38" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="64" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="13">
-        <v>42651</v>
+        <v>42653</v>
       </c>
       <c r="C64" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D64" s="8">
-        <v>22</v>
-      </c>
-      <c r="E64" s="45" t="s">
-        <v>115</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="E64" s="38"/>
     </row>
     <row r="65" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="13">
-        <v>42653</v>
-      </c>
-      <c r="C65" s="8">
-        <v>1</v>
-      </c>
-      <c r="D65" s="8">
-        <v>24</v>
-      </c>
-      <c r="E65" s="45"/>
+      <c r="B65" s="14">
+        <v>42655</v>
+      </c>
+      <c r="C65" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="D65" s="11">
+        <v>23</v>
+      </c>
+      <c r="E65" s="37"/>
     </row>
     <row r="66" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="14">
-        <v>42655</v>
+        <v>42657</v>
       </c>
       <c r="C66" s="11">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="D66" s="11">
-        <v>23</v>
-      </c>
-      <c r="E66" s="44"/>
+        <v>25</v>
+      </c>
+      <c r="E66" s="37"/>
     </row>
     <row r="67" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="14">
+      <c r="B67" s="13">
         <v>42657</v>
       </c>
-      <c r="C67" s="11">
-        <v>4</v>
-      </c>
-      <c r="D67" s="11">
-        <v>25</v>
-      </c>
-      <c r="E67" s="44"/>
+      <c r="C67" s="8">
+        <v>3</v>
+      </c>
+      <c r="D67" s="8">
+        <v>27</v>
+      </c>
+      <c r="E67" s="38" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="68" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="13">
-        <v>42657</v>
+        <v>42658</v>
       </c>
       <c r="C68" s="8">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="D68" s="8">
-        <v>27</v>
-      </c>
-      <c r="E68" s="45" t="s">
-        <v>118</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="E68" s="38"/>
     </row>
     <row r="69" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="13">
+      <c r="B69" s="14">
         <v>42658</v>
       </c>
-      <c r="C69" s="8">
+      <c r="C69" s="11">
         <v>0.5</v>
       </c>
-      <c r="D69" s="8">
-        <v>26</v>
-      </c>
-      <c r="E69" s="45"/>
-    </row>
-    <row r="70" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D69" s="11">
+        <v>28</v>
+      </c>
+      <c r="E69" s="37"/>
+    </row>
+    <row r="70" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B70" s="14">
-        <v>42658</v>
+        <v>42659</v>
       </c>
       <c r="C70" s="11">
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="D70" s="11">
-        <v>28</v>
-      </c>
-      <c r="E70" s="44"/>
-    </row>
-    <row r="71" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B71" s="14">
-        <v>42659</v>
-      </c>
-      <c r="C71" s="11">
-        <v>7</v>
-      </c>
-      <c r="D71" s="11">
         <v>29</v>
       </c>
-      <c r="E71" s="44" t="s">
+      <c r="E70" s="37" t="s">
         <v>120</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="13">
+        <v>42660</v>
+      </c>
+      <c r="C71" s="8">
+        <v>2</v>
+      </c>
+      <c r="D71" s="8">
+        <v>22</v>
+      </c>
+      <c r="E71" s="38" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="72" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2251,738 +2389,740 @@
         <v>42660</v>
       </c>
       <c r="C72" s="8">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D72" s="8">
-        <v>22</v>
-      </c>
-      <c r="E72" s="45" t="s">
-        <v>119</v>
+        <v>29</v>
+      </c>
+      <c r="E72" s="38" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="73" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="13">
+      <c r="B73" s="14">
         <v>42660</v>
       </c>
-      <c r="C73" s="8">
-        <v>7</v>
-      </c>
-      <c r="D73" s="8">
-        <v>29</v>
-      </c>
-      <c r="E73" s="45" t="s">
-        <v>121</v>
+      <c r="C73" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="D73" s="11">
+        <v>30</v>
+      </c>
+      <c r="E73" s="37" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="74" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="14">
-        <v>42660</v>
+        <v>42661</v>
       </c>
       <c r="C74" s="11">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="D74" s="11">
         <v>30</v>
       </c>
-      <c r="E74" s="44" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="14"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="11"/>
-      <c r="E75" s="44"/>
+      <c r="E74" s="37" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="33"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="34"/>
+      <c r="E75" s="39"/>
     </row>
     <row r="76" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="13"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="45"/>
+      <c r="B76" s="13">
+        <v>42665</v>
+      </c>
+      <c r="C76" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D76" s="8">
+        <v>34</v>
+      </c>
+      <c r="E76" s="38" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="77" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="13"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="45"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="37"/>
     </row>
     <row r="78" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="14"/>
       <c r="C78" s="11"/>
       <c r="D78" s="11"/>
-      <c r="E78" s="44"/>
+      <c r="E78" s="37"/>
     </row>
     <row r="79" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="14"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
-      <c r="E79" s="44"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="38"/>
     </row>
     <row r="80" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="13"/>
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
-      <c r="E80" s="45"/>
+      <c r="E80" s="38"/>
     </row>
     <row r="81" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="13"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="45"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="37"/>
     </row>
     <row r="82" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="14"/>
       <c r="C82" s="11"/>
       <c r="D82" s="11"/>
-      <c r="E82" s="44"/>
+      <c r="E82" s="37"/>
     </row>
     <row r="83" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="14"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="11"/>
-      <c r="E83" s="44"/>
+      <c r="B83" s="13"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="38"/>
     </row>
     <row r="84" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="13"/>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
-      <c r="E84" s="45"/>
+      <c r="E84" s="38"/>
     </row>
     <row r="85" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="13"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="45"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="37"/>
     </row>
     <row r="86" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="14"/>
       <c r="C86" s="11"/>
       <c r="D86" s="11"/>
-      <c r="E86" s="44"/>
+      <c r="E86" s="37"/>
     </row>
     <row r="87" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="14"/>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
-      <c r="E87" s="44"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="38"/>
     </row>
     <row r="88" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="13"/>
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
-      <c r="E88" s="45"/>
+      <c r="E88" s="38"/>
     </row>
     <row r="89" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="13"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="45"/>
+      <c r="B89" s="14"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="37"/>
     </row>
     <row r="90" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="14"/>
       <c r="C90" s="11"/>
       <c r="D90" s="11"/>
-      <c r="E90" s="44"/>
+      <c r="E90" s="37"/>
     </row>
     <row r="91" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="14"/>
-      <c r="C91" s="11"/>
-      <c r="D91" s="11"/>
-      <c r="E91" s="44"/>
+      <c r="B91" s="13"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="38"/>
     </row>
     <row r="92" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="13"/>
       <c r="C92" s="8"/>
       <c r="D92" s="8"/>
-      <c r="E92" s="45"/>
+      <c r="E92" s="38"/>
     </row>
     <row r="93" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="13"/>
-      <c r="C93" s="8"/>
-      <c r="D93" s="8"/>
-      <c r="E93" s="45"/>
+      <c r="B93" s="14"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="37"/>
     </row>
     <row r="94" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="14"/>
       <c r="C94" s="11"/>
       <c r="D94" s="11"/>
-      <c r="E94" s="44"/>
+      <c r="E94" s="37"/>
     </row>
     <row r="95" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="14"/>
-      <c r="C95" s="11"/>
-      <c r="D95" s="11"/>
-      <c r="E95" s="44"/>
+      <c r="B95" s="13"/>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="38"/>
     </row>
     <row r="96" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="13"/>
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
-      <c r="E96" s="45"/>
+      <c r="E96" s="38"/>
     </row>
     <row r="97" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="13"/>
-      <c r="C97" s="8"/>
-      <c r="D97" s="8"/>
-      <c r="E97" s="45"/>
+      <c r="B97" s="14"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="37"/>
     </row>
     <row r="98" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="14"/>
       <c r="C98" s="11"/>
       <c r="D98" s="11"/>
-      <c r="E98" s="44"/>
+      <c r="E98" s="37"/>
     </row>
     <row r="99" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="14"/>
-      <c r="C99" s="11"/>
-      <c r="D99" s="11"/>
-      <c r="E99" s="44"/>
+      <c r="B99" s="13"/>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="38"/>
     </row>
     <row r="100" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="13"/>
       <c r="C100" s="8"/>
       <c r="D100" s="8"/>
-      <c r="E100" s="45"/>
+      <c r="E100" s="38"/>
     </row>
     <row r="101" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="13"/>
-      <c r="C101" s="8"/>
-      <c r="D101" s="8"/>
-      <c r="E101" s="45"/>
+      <c r="B101" s="14"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="37"/>
     </row>
     <row r="102" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="14"/>
       <c r="C102" s="11"/>
       <c r="D102" s="11"/>
-      <c r="E102" s="44"/>
+      <c r="E102" s="37"/>
     </row>
     <row r="103" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="14"/>
-      <c r="C103" s="11"/>
-      <c r="D103" s="11"/>
-      <c r="E103" s="44"/>
+      <c r="B103" s="13"/>
+      <c r="C103" s="8"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="38"/>
     </row>
     <row r="104" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="13"/>
       <c r="C104" s="8"/>
       <c r="D104" s="8"/>
-      <c r="E104" s="45"/>
+      <c r="E104" s="38"/>
     </row>
     <row r="105" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="13"/>
-      <c r="C105" s="8"/>
-      <c r="D105" s="8"/>
-      <c r="E105" s="45"/>
+      <c r="B105" s="14"/>
+      <c r="C105" s="11"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="37"/>
     </row>
     <row r="106" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="14"/>
       <c r="C106" s="11"/>
       <c r="D106" s="11"/>
-      <c r="E106" s="44"/>
+      <c r="E106" s="37"/>
     </row>
     <row r="107" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="14"/>
-      <c r="C107" s="11"/>
-      <c r="D107" s="11"/>
-      <c r="E107" s="44"/>
+      <c r="B107" s="13"/>
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="38"/>
     </row>
     <row r="108" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="13"/>
       <c r="C108" s="8"/>
       <c r="D108" s="8"/>
-      <c r="E108" s="45"/>
+      <c r="E108" s="38"/>
     </row>
     <row r="109" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="13"/>
-      <c r="C109" s="8"/>
-      <c r="D109" s="8"/>
-      <c r="E109" s="45"/>
+      <c r="B109" s="14"/>
+      <c r="C109" s="11"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="37"/>
     </row>
     <row r="110" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="14"/>
       <c r="C110" s="11"/>
       <c r="D110" s="11"/>
-      <c r="E110" s="44"/>
+      <c r="E110" s="37"/>
     </row>
     <row r="111" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="14"/>
-      <c r="C111" s="11"/>
-      <c r="D111" s="11"/>
-      <c r="E111" s="44"/>
+      <c r="B111" s="13"/>
+      <c r="C111" s="8"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="38"/>
     </row>
     <row r="112" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="13"/>
       <c r="C112" s="8"/>
       <c r="D112" s="8"/>
-      <c r="E112" s="45"/>
+      <c r="E112" s="38"/>
     </row>
     <row r="113" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="13"/>
-      <c r="C113" s="8"/>
-      <c r="D113" s="8"/>
-      <c r="E113" s="45"/>
+      <c r="B113" s="14"/>
+      <c r="C113" s="11"/>
+      <c r="D113" s="11"/>
+      <c r="E113" s="37"/>
     </row>
     <row r="114" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="14"/>
       <c r="C114" s="11"/>
       <c r="D114" s="11"/>
-      <c r="E114" s="44"/>
+      <c r="E114" s="37"/>
     </row>
     <row r="115" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="14"/>
-      <c r="C115" s="11"/>
-      <c r="D115" s="11"/>
-      <c r="E115" s="44"/>
+      <c r="B115" s="13"/>
+      <c r="C115" s="8"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="38"/>
     </row>
     <row r="116" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="13"/>
       <c r="C116" s="8"/>
       <c r="D116" s="8"/>
-      <c r="E116" s="45"/>
+      <c r="E116" s="38"/>
     </row>
     <row r="117" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="13"/>
-      <c r="C117" s="8"/>
-      <c r="D117" s="8"/>
-      <c r="E117" s="45"/>
+      <c r="B117" s="14"/>
+      <c r="C117" s="11"/>
+      <c r="D117" s="11"/>
+      <c r="E117" s="37"/>
     </row>
     <row r="118" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="14"/>
       <c r="C118" s="11"/>
       <c r="D118" s="11"/>
-      <c r="E118" s="44"/>
+      <c r="E118" s="37"/>
     </row>
     <row r="119" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="14"/>
-      <c r="C119" s="11"/>
-      <c r="D119" s="11"/>
-      <c r="E119" s="44"/>
+      <c r="B119" s="13"/>
+      <c r="C119" s="8"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="38"/>
     </row>
     <row r="120" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="13"/>
       <c r="C120" s="8"/>
       <c r="D120" s="8"/>
-      <c r="E120" s="45"/>
+      <c r="E120" s="38"/>
     </row>
     <row r="121" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="13"/>
-      <c r="C121" s="8"/>
-      <c r="D121" s="8"/>
-      <c r="E121" s="45"/>
+      <c r="B121" s="14"/>
+      <c r="C121" s="11"/>
+      <c r="D121" s="11"/>
+      <c r="E121" s="37"/>
     </row>
     <row r="122" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="14"/>
       <c r="C122" s="11"/>
       <c r="D122" s="11"/>
-      <c r="E122" s="44"/>
+      <c r="E122" s="37"/>
     </row>
     <row r="123" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="14"/>
-      <c r="C123" s="11"/>
-      <c r="D123" s="11"/>
-      <c r="E123" s="44"/>
+      <c r="B123" s="13"/>
+      <c r="C123" s="8"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="38"/>
     </row>
     <row r="124" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="13"/>
       <c r="C124" s="8"/>
       <c r="D124" s="8"/>
-      <c r="E124" s="45"/>
+      <c r="E124" s="38"/>
     </row>
     <row r="125" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="13"/>
-      <c r="C125" s="8"/>
-      <c r="D125" s="8"/>
-      <c r="E125" s="45"/>
+      <c r="B125" s="14"/>
+      <c r="C125" s="11"/>
+      <c r="D125" s="11"/>
+      <c r="E125" s="37"/>
     </row>
     <row r="126" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="14"/>
       <c r="C126" s="11"/>
       <c r="D126" s="11"/>
-      <c r="E126" s="44"/>
+      <c r="E126" s="37"/>
     </row>
     <row r="127" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="14"/>
-      <c r="C127" s="11"/>
-      <c r="D127" s="11"/>
-      <c r="E127" s="44"/>
+      <c r="B127" s="13"/>
+      <c r="C127" s="8"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="38"/>
     </row>
     <row r="128" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="13"/>
       <c r="C128" s="8"/>
       <c r="D128" s="8"/>
-      <c r="E128" s="45"/>
+      <c r="E128" s="38"/>
     </row>
     <row r="129" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="13"/>
-      <c r="C129" s="8"/>
-      <c r="D129" s="8"/>
-      <c r="E129" s="45"/>
+      <c r="B129" s="14"/>
+      <c r="C129" s="11"/>
+      <c r="D129" s="11"/>
+      <c r="E129" s="37"/>
     </row>
     <row r="130" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="14"/>
       <c r="C130" s="11"/>
       <c r="D130" s="11"/>
-      <c r="E130" s="44"/>
+      <c r="E130" s="37"/>
     </row>
     <row r="131" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="14"/>
-      <c r="C131" s="11"/>
-      <c r="D131" s="11"/>
-      <c r="E131" s="44"/>
+      <c r="B131" s="13"/>
+      <c r="C131" s="8"/>
+      <c r="D131" s="8"/>
+      <c r="E131" s="38"/>
     </row>
     <row r="132" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="13"/>
       <c r="C132" s="8"/>
       <c r="D132" s="8"/>
-      <c r="E132" s="45"/>
+      <c r="E132" s="38"/>
     </row>
     <row r="133" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="13"/>
-      <c r="C133" s="8"/>
-      <c r="D133" s="8"/>
-      <c r="E133" s="45"/>
+      <c r="B133" s="14"/>
+      <c r="C133" s="11"/>
+      <c r="D133" s="11"/>
+      <c r="E133" s="37"/>
     </row>
     <row r="134" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="14"/>
       <c r="C134" s="11"/>
       <c r="D134" s="11"/>
-      <c r="E134" s="44"/>
+      <c r="E134" s="37"/>
     </row>
     <row r="135" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="14"/>
-      <c r="C135" s="11"/>
-      <c r="D135" s="11"/>
-      <c r="E135" s="44"/>
+      <c r="B135" s="13"/>
+      <c r="C135" s="8"/>
+      <c r="D135" s="8"/>
+      <c r="E135" s="38"/>
     </row>
     <row r="136" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="13"/>
       <c r="C136" s="8"/>
       <c r="D136" s="8"/>
-      <c r="E136" s="45"/>
+      <c r="E136" s="38"/>
     </row>
     <row r="137" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="13"/>
-      <c r="C137" s="8"/>
-      <c r="D137" s="8"/>
-      <c r="E137" s="45"/>
+      <c r="B137" s="14"/>
+      <c r="C137" s="11"/>
+      <c r="D137" s="11"/>
+      <c r="E137" s="37"/>
     </row>
     <row r="138" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="14"/>
       <c r="C138" s="11"/>
       <c r="D138" s="11"/>
-      <c r="E138" s="44"/>
+      <c r="E138" s="37"/>
     </row>
     <row r="139" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="14"/>
-      <c r="C139" s="11"/>
-      <c r="D139" s="11"/>
-      <c r="E139" s="44"/>
+      <c r="B139" s="13"/>
+      <c r="C139" s="8"/>
+      <c r="D139" s="8"/>
+      <c r="E139" s="38"/>
     </row>
     <row r="140" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="13"/>
       <c r="C140" s="8"/>
       <c r="D140" s="8"/>
-      <c r="E140" s="45"/>
+      <c r="E140" s="38"/>
     </row>
     <row r="141" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="13"/>
-      <c r="C141" s="8"/>
-      <c r="D141" s="8"/>
-      <c r="E141" s="45"/>
+      <c r="B141" s="14"/>
+      <c r="C141" s="11"/>
+      <c r="D141" s="11"/>
+      <c r="E141" s="37"/>
     </row>
     <row r="142" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="14"/>
       <c r="C142" s="11"/>
       <c r="D142" s="11"/>
-      <c r="E142" s="44"/>
+      <c r="E142" s="37"/>
     </row>
     <row r="143" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="14"/>
-      <c r="C143" s="11"/>
-      <c r="D143" s="11"/>
-      <c r="E143" s="44"/>
+      <c r="B143" s="13"/>
+      <c r="C143" s="8"/>
+      <c r="D143" s="8"/>
+      <c r="E143" s="38"/>
     </row>
     <row r="144" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="13"/>
       <c r="C144" s="8"/>
       <c r="D144" s="8"/>
-      <c r="E144" s="45"/>
+      <c r="E144" s="38"/>
     </row>
     <row r="145" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="13"/>
-      <c r="C145" s="8"/>
-      <c r="D145" s="8"/>
-      <c r="E145" s="45"/>
+      <c r="B145" s="14"/>
+      <c r="C145" s="11"/>
+      <c r="D145" s="11"/>
+      <c r="E145" s="37"/>
     </row>
     <row r="146" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="14"/>
       <c r="C146" s="11"/>
       <c r="D146" s="11"/>
-      <c r="E146" s="44"/>
+      <c r="E146" s="37"/>
     </row>
     <row r="147" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="14"/>
-      <c r="C147" s="11"/>
-      <c r="D147" s="11"/>
-      <c r="E147" s="44"/>
+      <c r="B147" s="13"/>
+      <c r="C147" s="8"/>
+      <c r="D147" s="8"/>
+      <c r="E147" s="38"/>
     </row>
     <row r="148" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="13"/>
       <c r="C148" s="8"/>
       <c r="D148" s="8"/>
-      <c r="E148" s="45"/>
+      <c r="E148" s="38"/>
     </row>
     <row r="149" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="13"/>
-      <c r="C149" s="8"/>
-      <c r="D149" s="8"/>
-      <c r="E149" s="45"/>
+      <c r="B149" s="14"/>
+      <c r="C149" s="11"/>
+      <c r="D149" s="11"/>
+      <c r="E149" s="37"/>
     </row>
     <row r="150" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="14"/>
       <c r="C150" s="11"/>
       <c r="D150" s="11"/>
-      <c r="E150" s="44"/>
+      <c r="E150" s="37"/>
     </row>
     <row r="151" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="14"/>
-      <c r="C151" s="11"/>
-      <c r="D151" s="11"/>
-      <c r="E151" s="44"/>
+      <c r="B151" s="13"/>
+      <c r="C151" s="8"/>
+      <c r="D151" s="8"/>
+      <c r="E151" s="38"/>
     </row>
     <row r="152" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="13"/>
       <c r="C152" s="8"/>
       <c r="D152" s="8"/>
-      <c r="E152" s="45"/>
+      <c r="E152" s="38"/>
     </row>
     <row r="153" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="13"/>
-      <c r="C153" s="8"/>
-      <c r="D153" s="8"/>
-      <c r="E153" s="45"/>
+      <c r="B153" s="14"/>
+      <c r="C153" s="11"/>
+      <c r="D153" s="11"/>
+      <c r="E153" s="37"/>
     </row>
     <row r="154" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="14"/>
       <c r="C154" s="11"/>
       <c r="D154" s="11"/>
-      <c r="E154" s="44"/>
+      <c r="E154" s="37"/>
     </row>
     <row r="155" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="14"/>
-      <c r="C155" s="11"/>
-      <c r="D155" s="11"/>
-      <c r="E155" s="44"/>
+      <c r="B155" s="13"/>
+      <c r="C155" s="8"/>
+      <c r="D155" s="8"/>
+      <c r="E155" s="38"/>
     </row>
     <row r="156" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="13"/>
       <c r="C156" s="8"/>
       <c r="D156" s="8"/>
-      <c r="E156" s="45"/>
+      <c r="E156" s="38"/>
     </row>
     <row r="157" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="13"/>
-      <c r="C157" s="8"/>
-      <c r="D157" s="8"/>
-      <c r="E157" s="45"/>
+      <c r="B157" s="14"/>
+      <c r="C157" s="11"/>
+      <c r="D157" s="11"/>
+      <c r="E157" s="37"/>
     </row>
     <row r="158" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="14"/>
       <c r="C158" s="11"/>
       <c r="D158" s="11"/>
-      <c r="E158" s="44"/>
+      <c r="E158" s="37"/>
     </row>
     <row r="159" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="14"/>
-      <c r="C159" s="11"/>
-      <c r="D159" s="11"/>
-      <c r="E159" s="44"/>
+      <c r="B159" s="13"/>
+      <c r="C159" s="8"/>
+      <c r="D159" s="8"/>
+      <c r="E159" s="38"/>
     </row>
     <row r="160" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="13"/>
       <c r="C160" s="8"/>
       <c r="D160" s="8"/>
-      <c r="E160" s="45"/>
+      <c r="E160" s="38"/>
     </row>
     <row r="161" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="13"/>
-      <c r="C161" s="8"/>
-      <c r="D161" s="8"/>
-      <c r="E161" s="45"/>
+      <c r="B161" s="14"/>
+      <c r="C161" s="11"/>
+      <c r="D161" s="11"/>
+      <c r="E161" s="37"/>
     </row>
     <row r="162" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="14"/>
       <c r="C162" s="11"/>
       <c r="D162" s="11"/>
-      <c r="E162" s="44"/>
+      <c r="E162" s="37"/>
     </row>
     <row r="163" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="14"/>
-      <c r="C163" s="11"/>
-      <c r="D163" s="11"/>
-      <c r="E163" s="44"/>
+      <c r="B163" s="13"/>
+      <c r="C163" s="8"/>
+      <c r="D163" s="8"/>
+      <c r="E163" s="38"/>
     </row>
     <row r="164" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="13"/>
       <c r="C164" s="8"/>
       <c r="D164" s="8"/>
-      <c r="E164" s="45"/>
+      <c r="E164" s="38"/>
     </row>
     <row r="165" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="13"/>
-      <c r="C165" s="8"/>
-      <c r="D165" s="8"/>
-      <c r="E165" s="45"/>
+      <c r="B165" s="14"/>
+      <c r="C165" s="11"/>
+      <c r="D165" s="11"/>
+      <c r="E165" s="37"/>
     </row>
     <row r="166" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="14"/>
       <c r="C166" s="11"/>
       <c r="D166" s="11"/>
-      <c r="E166" s="44"/>
+      <c r="E166" s="37"/>
     </row>
     <row r="167" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="14"/>
-      <c r="C167" s="11"/>
-      <c r="D167" s="11"/>
-      <c r="E167" s="44"/>
+      <c r="B167" s="13"/>
+      <c r="C167" s="8"/>
+      <c r="D167" s="8"/>
+      <c r="E167" s="38"/>
     </row>
     <row r="168" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="13"/>
       <c r="C168" s="8"/>
       <c r="D168" s="8"/>
-      <c r="E168" s="45"/>
+      <c r="E168" s="38"/>
     </row>
     <row r="169" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="13"/>
-      <c r="C169" s="8"/>
-      <c r="D169" s="8"/>
-      <c r="E169" s="45"/>
+      <c r="B169" s="14"/>
+      <c r="C169" s="11"/>
+      <c r="D169" s="11"/>
+      <c r="E169" s="37"/>
     </row>
     <row r="170" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="14"/>
       <c r="C170" s="11"/>
       <c r="D170" s="11"/>
-      <c r="E170" s="44"/>
+      <c r="E170" s="37"/>
     </row>
     <row r="171" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B171" s="14"/>
-      <c r="C171" s="11"/>
-      <c r="D171" s="11"/>
-      <c r="E171" s="44"/>
+      <c r="B171" s="13"/>
+      <c r="C171" s="8"/>
+      <c r="D171" s="8"/>
+      <c r="E171" s="38"/>
     </row>
     <row r="172" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="13"/>
       <c r="C172" s="8"/>
       <c r="D172" s="8"/>
-      <c r="E172" s="45"/>
+      <c r="E172" s="38"/>
     </row>
     <row r="173" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B173" s="13"/>
-      <c r="C173" s="8"/>
-      <c r="D173" s="8"/>
-      <c r="E173" s="45"/>
+      <c r="B173" s="14"/>
+      <c r="C173" s="11"/>
+      <c r="D173" s="11"/>
+      <c r="E173" s="37"/>
     </row>
     <row r="174" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="14"/>
       <c r="C174" s="11"/>
       <c r="D174" s="11"/>
-      <c r="E174" s="44"/>
+      <c r="E174" s="37"/>
     </row>
     <row r="175" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B175" s="14"/>
-      <c r="C175" s="11"/>
-      <c r="D175" s="11"/>
-      <c r="E175" s="44"/>
+      <c r="B175" s="13"/>
+      <c r="C175" s="8"/>
+      <c r="D175" s="8"/>
+      <c r="E175" s="38"/>
     </row>
     <row r="176" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="13"/>
       <c r="C176" s="8"/>
       <c r="D176" s="8"/>
-      <c r="E176" s="45"/>
+      <c r="E176" s="38"/>
     </row>
     <row r="177" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="13"/>
-      <c r="C177" s="8"/>
-      <c r="D177" s="8"/>
-      <c r="E177" s="45"/>
+      <c r="B177" s="14"/>
+      <c r="C177" s="11"/>
+      <c r="D177" s="11"/>
+      <c r="E177" s="37"/>
     </row>
     <row r="178" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="14"/>
       <c r="C178" s="11"/>
       <c r="D178" s="11"/>
-      <c r="E178" s="44"/>
+      <c r="E178" s="37"/>
     </row>
     <row r="179" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B179" s="14"/>
-      <c r="C179" s="11"/>
-      <c r="D179" s="11"/>
-      <c r="E179" s="44"/>
+      <c r="B179" s="13"/>
+      <c r="C179" s="8"/>
+      <c r="D179" s="8"/>
+      <c r="E179" s="38"/>
     </row>
     <row r="180" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="13"/>
       <c r="C180" s="8"/>
       <c r="D180" s="8"/>
-      <c r="E180" s="45"/>
+      <c r="E180" s="38"/>
     </row>
     <row r="181" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="13"/>
-      <c r="C181" s="8"/>
-      <c r="D181" s="8"/>
-      <c r="E181" s="45"/>
+      <c r="B181" s="14"/>
+      <c r="C181" s="11"/>
+      <c r="D181" s="11"/>
+      <c r="E181" s="37"/>
     </row>
     <row r="182" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="14"/>
       <c r="C182" s="11"/>
       <c r="D182" s="11"/>
-      <c r="E182" s="44"/>
+      <c r="E182" s="37"/>
     </row>
     <row r="183" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B183" s="14"/>
-      <c r="C183" s="11"/>
-      <c r="D183" s="11"/>
-      <c r="E183" s="44"/>
+      <c r="B183" s="13"/>
+      <c r="C183" s="8"/>
+      <c r="D183" s="8"/>
+      <c r="E183" s="38"/>
     </row>
     <row r="184" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="13"/>
       <c r="C184" s="8"/>
       <c r="D184" s="8"/>
-      <c r="E184" s="45"/>
+      <c r="E184" s="38"/>
     </row>
     <row r="185" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B185" s="13"/>
-      <c r="C185" s="8"/>
-      <c r="D185" s="8"/>
-      <c r="E185" s="45"/>
+      <c r="B185" s="14"/>
+      <c r="C185" s="11"/>
+      <c r="D185" s="11"/>
+      <c r="E185" s="37"/>
     </row>
     <row r="186" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="14"/>
       <c r="C186" s="11"/>
       <c r="D186" s="11"/>
-      <c r="E186" s="44"/>
+      <c r="E186" s="37"/>
     </row>
     <row r="187" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B187" s="14"/>
-      <c r="C187" s="11"/>
-      <c r="D187" s="11"/>
-      <c r="E187" s="44"/>
+      <c r="B187" s="13"/>
+      <c r="C187" s="8"/>
+      <c r="D187" s="8"/>
+      <c r="E187" s="38"/>
     </row>
     <row r="188" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="13"/>
       <c r="C188" s="8"/>
       <c r="D188" s="8"/>
-      <c r="E188" s="45"/>
+      <c r="E188" s="38"/>
     </row>
     <row r="189" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B189" s="13"/>
-      <c r="C189" s="8"/>
-      <c r="D189" s="8"/>
-      <c r="E189" s="45"/>
-    </row>
-    <row r="190" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B190" s="14"/>
-      <c r="C190" s="11"/>
-      <c r="D190" s="11"/>
-      <c r="E190" s="44"/>
+      <c r="B189" s="14"/>
+      <c r="C189" s="11"/>
+      <c r="D189" s="11"/>
+      <c r="E189" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2992,10 +3132,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I37"/>
+  <dimension ref="B1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3011,165 +3152,193 @@
     <col min="9" max="9" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+    <row r="1" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I1" s="16" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="10" t="str">
+        <f t="shared" ref="C2:C35" si="0">IF(OR(I2=100%,G2=0),"DONE",IF(I2&gt;0,"IN PROGRESS",""))</f>
+        <v>DONE</v>
+      </c>
+      <c r="D2" s="11">
+        <v>0</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="11">
+        <v>3</v>
+      </c>
+      <c r="G2" s="11">
+        <v>0</v>
+      </c>
+      <c r="H2" s="11">
+        <f>SUMIFS(Time!C:C,Time!D:D,Tasks!D2)</f>
+        <v>3.5</v>
+      </c>
+      <c r="I2" s="12">
+        <f>IF(G2+H2&gt;0,H2/(H2+G2),0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C3" s="10" t="str">
-        <f t="shared" ref="C3:C36" si="0">IF(OR(I3=100%,G3=0),"DONE",IF(I3&gt;0,"IN PROGRESS",""))</f>
+        <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
       <c r="D3" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F3" s="11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G3" s="11">
         <v>0</v>
       </c>
       <c r="H3" s="11">
         <f>SUMIFS(Time!C:C,Time!D:D,Tasks!D3)</f>
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="I3" s="12">
-        <f>IF(G3+H3&gt;0,H3/(H3+G3),0)</f>
+        <f>IF(G3+H3&gt;0,H3/(H3+G3),"")</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="10" t="str">
+      <c r="B4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="7" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="D4" s="11">
-        <v>1</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="11">
-        <v>6</v>
-      </c>
-      <c r="G4" s="11">
-        <v>0</v>
-      </c>
-      <c r="H4" s="11">
+      <c r="D4" s="8">
+        <v>2</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
         <f>SUMIFS(Time!C:C,Time!D:D,Tasks!D4)</f>
-        <v>9</v>
-      </c>
-      <c r="I4" s="12">
-        <f>IF(G4+H4&gt;0,H4/(H4+G4),"")</f>
+        <v>1.25</v>
+      </c>
+      <c r="I4" s="9">
+        <f t="shared" ref="I4:I8" si="1">IF(G4+H4&gt;0,H4/(H4+G4),"")</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" s="7" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
       <c r="D5" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G5" s="8">
         <v>0</v>
       </c>
       <c r="H5" s="8">
         <f>SUMIFS(Time!C:C,Time!D:D,Tasks!D5)</f>
-        <v>1.25</v>
+        <v>9</v>
       </c>
       <c r="I5" s="9">
-        <f t="shared" ref="I5:I9" si="1">IF(G5+H5&gt;0,H5/(H5+G5),"")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="7" t="str">
+      <c r="B6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="D6" s="8">
-        <v>3</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="11">
+        <v>4</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="8">
-        <v>10</v>
-      </c>
-      <c r="G6" s="8">
-        <v>0</v>
-      </c>
-      <c r="H6" s="8">
+      <c r="F6" s="11">
+        <v>2</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0</v>
+      </c>
+      <c r="H6" s="11">
         <f>SUMIFS(Time!C:C,Time!D:D,Tasks!D6)</f>
-        <v>9</v>
-      </c>
-      <c r="I6" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="10" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
       <c r="D7" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F7" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" s="11">
         <v>0</v>
@@ -3184,115 +3353,115 @@
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="10" t="str">
+      <c r="B8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="7" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="D8" s="11">
-        <v>5</v>
-      </c>
-      <c r="E8" s="10" t="s">
+      <c r="D8" s="8">
+        <v>6</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="11">
-        <v>1</v>
-      </c>
-      <c r="G8" s="11">
-        <v>0</v>
-      </c>
-      <c r="H8" s="11">
+      <c r="F8" s="8">
+        <v>10</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8">
         <f>SUMIFS(Time!C:C,Time!D:D,Tasks!D8)</f>
-        <v>0.5</v>
-      </c>
-      <c r="I8" s="12">
+        <v>8.5</v>
+      </c>
+      <c r="I8" s="9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" s="7" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
       <c r="D9" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="8">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G9" s="8">
         <v>0</v>
       </c>
       <c r="H9" s="8">
         <f>SUMIFS(Time!C:C,Time!D:D,Tasks!D9)</f>
-        <v>8.5</v>
+        <v>0.5</v>
       </c>
       <c r="I9" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I9:I11" si="2">IF(G9+H9&gt;0,H9/(H9+G9),"")</f>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="7" t="str">
+      <c r="B10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="10" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="D10" s="8">
-        <v>7</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="8">
-        <v>2</v>
-      </c>
-      <c r="G10" s="8">
-        <v>0</v>
-      </c>
-      <c r="H10" s="8">
+      <c r="D10" s="11">
+        <v>8</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="11">
+        <v>1</v>
+      </c>
+      <c r="G10" s="11">
+        <v>0</v>
+      </c>
+      <c r="H10" s="11">
         <f>SUMIFS(Time!C:C,Time!D:D,Tasks!D10)</f>
         <v>0.5</v>
       </c>
-      <c r="I10" s="9">
-        <f t="shared" ref="I10:I12" si="2">IF(G10+H10&gt;0,H10/(H10+G10),"")</f>
+      <c r="I10" s="12">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="10" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
       <c r="D11" s="11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>16</v>
       </c>
       <c r="F11" s="11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G11" s="11">
         <v>0</v>
       </c>
       <c r="H11" s="11">
         <f>SUMIFS(Time!C:C,Time!D:D,Tasks!D11)</f>
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="I11" s="12">
         <f t="shared" si="2"/>
@@ -3300,212 +3469,212 @@
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="10" t="str">
+      <c r="B12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="7" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="D12" s="11">
-        <v>9</v>
-      </c>
-      <c r="E12" s="10" t="s">
+      <c r="D12" s="8">
+        <v>10</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="11">
-        <v>10</v>
-      </c>
-      <c r="G12" s="11">
-        <v>0</v>
-      </c>
-      <c r="H12" s="11">
+      <c r="F12" s="8">
+        <v>2</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8">
         <f>SUMIFS(Time!C:C,Time!D:D,Tasks!D12)</f>
-        <v>3</v>
-      </c>
-      <c r="I12" s="12">
-        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="I12" s="9">
+        <f t="shared" ref="I12:I13" si="3">IF(G12+H12&gt;0,H12/(H12+G12),"")</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" s="7" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
       <c r="D13" s="8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F13" s="8">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G13" s="8">
         <v>0</v>
       </c>
       <c r="H13" s="8">
         <f>SUMIFS(Time!C:C,Time!D:D,Tasks!D13)</f>
-        <v>0.5</v>
+        <v>26.5</v>
       </c>
       <c r="I13" s="9">
-        <f t="shared" ref="I13:I14" si="3">IF(G13+H13&gt;0,H13/(H13+G13),"")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="7" t="str">
+      <c r="B14" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="10" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="D14" s="8">
-        <v>11</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="8">
-        <v>20</v>
-      </c>
-      <c r="G14" s="8">
-        <v>0</v>
-      </c>
-      <c r="H14" s="8">
+      <c r="D14" s="11">
+        <v>12</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="11">
+        <v>10</v>
+      </c>
+      <c r="G14" s="11">
+        <v>0</v>
+      </c>
+      <c r="H14" s="11">
         <f>SUMIFS(Time!C:C,Time!D:D,Tasks!D14)</f>
-        <v>26.5</v>
-      </c>
-      <c r="I14" s="9">
-        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="I14" s="12">
+        <f t="shared" ref="I14" si="4">IF(G14+H14&gt;0,H14/(H14+G14),"")</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="10" t="str">
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="10" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="D15" s="11">
-        <v>12</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="11">
-        <v>10</v>
-      </c>
-      <c r="G15" s="11">
-        <v>0</v>
-      </c>
-      <c r="H15" s="11">
-        <f>SUMIFS(Time!C:C,Time!D:D,Tasks!D15)</f>
-        <v>10</v>
-      </c>
-      <c r="I15" s="12">
-        <f t="shared" ref="I15" si="4">IF(G15+H15&gt;0,H15/(H15+G15),"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
+      <c r="D16" s="11">
+        <v>13</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="G16" s="11">
+        <v>0</v>
+      </c>
+      <c r="H16" s="11">
+        <f>SUMIFS(Time!C:C,Time!D:D,Tasks!D16)</f>
+        <v>1</v>
+      </c>
+      <c r="I16" s="12">
+        <f>IF(G16+H16&gt;0,H16/(H16+G16),0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C17" s="10" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
       <c r="D17" s="11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="F17" s="11">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="G17" s="11">
         <v>0</v>
       </c>
       <c r="H17" s="11">
         <f>SUMIFS(Time!C:C,Time!D:D,Tasks!D17)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I17" s="12">
-        <f>IF(G17+H17&gt;0,H17/(H17+G17),0)</f>
+        <f t="shared" ref="I17:I20" si="5">IF(G17+H17&gt;0,H17/(H17+G17),0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="10" t="str">
+      <c r="B18" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="7" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="D18" s="11">
-        <v>14</v>
-      </c>
-      <c r="E18" s="10" t="s">
+      <c r="D18" s="8">
+        <v>15</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="11">
-        <v>4</v>
-      </c>
-      <c r="G18" s="11">
-        <v>0</v>
-      </c>
-      <c r="H18" s="11">
+      <c r="F18" s="8">
+        <v>1</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0</v>
+      </c>
+      <c r="H18" s="8">
         <f>SUMIFS(Time!C:C,Time!D:D,Tasks!D18)</f>
-        <v>0.5</v>
-      </c>
-      <c r="I18" s="12">
-        <f t="shared" ref="I18:I21" si="5">IF(G18+H18&gt;0,H18/(H18+G18),0)</f>
+        <v>0.2</v>
+      </c>
+      <c r="I18" s="9">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C19" s="7" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
       <c r="D19" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F19" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G19" s="8">
         <v>0</v>
       </c>
       <c r="H19" s="8">
         <f>SUMIFS(Time!C:C,Time!D:D,Tasks!D19)</f>
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I19" s="9">
         <f t="shared" si="5"/>
@@ -3513,47 +3682,47 @@
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="7" t="str">
+      <c r="B20" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="10" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="D20" s="8">
-        <v>16</v>
-      </c>
-      <c r="E20" s="7" t="s">
+      <c r="D20" s="11">
+        <v>17</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F20" s="8">
-        <v>4</v>
-      </c>
-      <c r="G20" s="8">
-        <v>0</v>
-      </c>
-      <c r="H20" s="8">
+      <c r="F20" s="11">
+        <v>1</v>
+      </c>
+      <c r="G20" s="11">
+        <v>0</v>
+      </c>
+      <c r="H20" s="11">
         <f>SUMIFS(Time!C:C,Time!D:D,Tasks!D20)</f>
-        <v>0.5</v>
-      </c>
-      <c r="I20" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="I20" s="12">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C21" s="10" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
       <c r="D21" s="11">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F21" s="11">
         <v>1</v>
@@ -3563,65 +3732,65 @@
       </c>
       <c r="H21" s="11">
         <f>SUMIFS(Time!C:C,Time!D:D,Tasks!D21)</f>
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I21" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="I21:I27" si="6">IF(G21+H21&gt;0,H21/(H21+G21),0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" s="10" t="str">
+      <c r="B22" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="7" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="D22" s="11">
-        <v>18</v>
-      </c>
-      <c r="E22" s="10" t="s">
+      <c r="D22" s="8">
+        <v>19</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="11">
-        <v>1</v>
-      </c>
-      <c r="G22" s="11">
-        <v>0</v>
-      </c>
-      <c r="H22" s="11">
+      <c r="F22" s="8">
+        <v>8</v>
+      </c>
+      <c r="G22" s="8">
+        <v>0</v>
+      </c>
+      <c r="H22" s="8">
         <f>SUMIFS(Time!C:C,Time!D:D,Tasks!D22)</f>
-        <v>0.5</v>
-      </c>
-      <c r="I22" s="12">
-        <f t="shared" ref="I22:I28" si="6">IF(G22+H22&gt;0,H22/(H22+G22),0)</f>
+        <v>4.5</v>
+      </c>
+      <c r="I22" s="9">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C23" s="7" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
       <c r="D23" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>71</v>
       </c>
       <c r="F23" s="8">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G23" s="8">
         <v>0</v>
       </c>
       <c r="H23" s="8">
         <f>SUMIFS(Time!C:C,Time!D:D,Tasks!D23)</f>
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="I23" s="9">
         <f t="shared" si="6"/>
@@ -3629,57 +3798,57 @@
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C24" s="7" t="str">
+      <c r="B24" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="10" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="D24" s="8">
-        <v>20</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F24" s="8">
-        <v>1</v>
-      </c>
-      <c r="G24" s="8">
-        <v>0</v>
-      </c>
-      <c r="H24" s="8">
+      <c r="D24" s="11">
+        <v>21</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="11">
+        <v>2</v>
+      </c>
+      <c r="G24" s="11">
+        <v>0</v>
+      </c>
+      <c r="H24" s="11">
         <f>SUMIFS(Time!C:C,Time!D:D,Tasks!D24)</f>
         <v>1</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="12">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C25" s="10" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
       <c r="D25" s="11">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>72</v>
       </c>
       <c r="F25" s="11">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G25" s="11">
         <v>0</v>
       </c>
       <c r="H25" s="11">
         <f>SUMIFS(Time!C:C,Time!D:D,Tasks!D25)</f>
-        <v>1</v>
+        <v>11.5</v>
       </c>
       <c r="I25" s="12">
         <f t="shared" si="6"/>
@@ -3687,57 +3856,57 @@
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C26" s="10" t="str">
+      <c r="B26" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="7" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="D26" s="11">
-        <v>22</v>
-      </c>
-      <c r="E26" s="10" t="s">
+      <c r="D26" s="8">
+        <v>23</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F26" s="11">
-        <v>10</v>
-      </c>
-      <c r="G26" s="11">
-        <v>0</v>
-      </c>
-      <c r="H26" s="11">
+      <c r="F26" s="8">
+        <v>1</v>
+      </c>
+      <c r="G26" s="8">
+        <v>0</v>
+      </c>
+      <c r="H26" s="8">
         <f>SUMIFS(Time!C:C,Time!D:D,Tasks!D26)</f>
-        <v>11.5</v>
-      </c>
-      <c r="I26" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="I26" s="9">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C27" s="7" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
       <c r="D27" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F27" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27" s="8">
         <v>0</v>
       </c>
       <c r="H27" s="8">
         <f>SUMIFS(Time!C:C,Time!D:D,Tasks!D27)</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I27" s="9">
         <f t="shared" si="6"/>
@@ -3745,115 +3914,115 @@
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C28" s="7" t="str">
+      <c r="B28" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="10" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="D28" s="8">
-        <v>24</v>
-      </c>
-      <c r="E28" s="7" t="s">
+      <c r="D28" s="11">
+        <v>25</v>
+      </c>
+      <c r="E28" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="F28" s="8">
-        <v>2</v>
-      </c>
-      <c r="G28" s="8">
-        <v>0</v>
-      </c>
-      <c r="H28" s="8">
+      <c r="F28" s="11">
+        <v>6</v>
+      </c>
+      <c r="G28" s="11">
+        <v>0</v>
+      </c>
+      <c r="H28" s="11">
         <f>SUMIFS(Time!C:C,Time!D:D,Tasks!D28)</f>
-        <v>1</v>
-      </c>
-      <c r="I28" s="9">
-        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="I28" s="12">
+        <f t="shared" ref="I28:I33" si="7">IF(G28+H28&gt;0,H28/(H28+G28),0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C29" s="10" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
       <c r="D29" s="11">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>73</v>
       </c>
       <c r="F29" s="11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G29" s="11">
         <v>0</v>
       </c>
       <c r="H29" s="11">
         <f>SUMIFS(Time!C:C,Time!D:D,Tasks!D29)</f>
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="I29" s="12">
-        <f t="shared" ref="I29:I34" si="7">IF(G29+H29&gt;0,H29/(H29+G29),0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C30" s="10" t="str">
+      <c r="B30" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" s="7" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="D30" s="11">
-        <v>26</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="F30" s="11">
-        <v>1</v>
-      </c>
-      <c r="G30" s="11">
-        <v>0</v>
-      </c>
-      <c r="H30" s="11">
+      <c r="D30" s="8">
+        <v>27</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F30" s="8">
+        <v>4</v>
+      </c>
+      <c r="G30" s="8">
+        <v>0</v>
+      </c>
+      <c r="H30" s="8">
         <f>SUMIFS(Time!C:C,Time!D:D,Tasks!D30)</f>
-        <v>0.5</v>
-      </c>
-      <c r="I30" s="12">
+        <v>3</v>
+      </c>
+      <c r="I30" s="9">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C31" s="7" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
       <c r="D31" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>74</v>
       </c>
       <c r="F31" s="8">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="G31" s="8">
         <v>0</v>
       </c>
       <c r="H31" s="8">
         <f>SUMIFS(Time!C:C,Time!D:D,Tasks!D31)</f>
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="I31" s="9">
         <f t="shared" si="7"/>
@@ -3861,57 +4030,57 @@
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C32" s="7" t="str">
+      <c r="B32" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="10" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="D32" s="8">
-        <v>28</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F32" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="G32" s="8">
-        <v>0</v>
-      </c>
-      <c r="H32" s="8">
+      <c r="D32" s="11">
+        <v>29</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F32" s="11">
+        <v>15</v>
+      </c>
+      <c r="G32" s="11">
+        <v>0</v>
+      </c>
+      <c r="H32" s="11">
         <f>SUMIFS(Time!C:C,Time!D:D,Tasks!D32)</f>
-        <v>0.5</v>
-      </c>
-      <c r="I32" s="9">
+        <v>14</v>
+      </c>
+      <c r="I32" s="12">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C33" s="10" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
       <c r="D33" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F33" s="11">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G33" s="11">
         <v>0</v>
       </c>
       <c r="H33" s="11">
         <f>SUMIFS(Time!C:C,Time!D:D,Tasks!D33)</f>
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I33" s="12">
         <f t="shared" si="7"/>
@@ -3919,125 +4088,687 @@
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C34" s="10" t="str">
+      <c r="B34" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="7" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
-      <c r="D34" s="11">
-        <v>30</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F34" s="11">
-        <v>3</v>
-      </c>
-      <c r="G34" s="11">
-        <v>0</v>
-      </c>
-      <c r="H34" s="11">
+      <c r="D34" s="8">
+        <v>31</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F34" s="8">
+        <v>10</v>
+      </c>
+      <c r="G34" s="8">
+        <v>0</v>
+      </c>
+      <c r="H34" s="8">
         <f>SUMIFS(Time!C:C,Time!D:D,Tasks!D34)</f>
-        <v>2.5</v>
-      </c>
-      <c r="I34" s="12">
-        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="I34" s="9">
+        <f t="shared" ref="I34:I36" si="8">IF(G34+H34&gt;0,H34/(H34+G34),0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C35" s="7" t="str">
         <f t="shared" si="0"/>
         <v>DONE</v>
       </c>
       <c r="D35" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>98</v>
       </c>
       <c r="F35" s="8">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G35" s="8">
         <v>0</v>
       </c>
       <c r="H35" s="8">
         <f>SUMIFS(Time!C:C,Time!D:D,Tasks!D35)</f>
+        <v>4</v>
+      </c>
+      <c r="I35" s="9">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" s="10" t="str">
+        <f>IF(OR(I36=100%,G36=0),"DONE",IF(I36&gt;0,"IN PROGRESS",""))</f>
+        <v>DONE</v>
+      </c>
+      <c r="D36" s="11">
+        <v>33</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F36" s="11">
+        <v>0</v>
+      </c>
+      <c r="G36" s="11">
+        <v>0</v>
+      </c>
+      <c r="H36" s="11">
+        <f>SUMIFS(Time!C:C,Time!D:D,Tasks!D36)</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="10" t="str">
+        <f t="shared" ref="C38:C57" si="9">IF(OR(I38=100%,G38=0),"DONE",IF(I38&gt;0,"IN PROGRESS",""))</f>
+        <v>DONE</v>
+      </c>
+      <c r="D38" s="11">
+        <v>34</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="F38" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="G38" s="11">
+        <v>0</v>
+      </c>
+      <c r="H38" s="11">
+        <f>SUMIFS(Time!C:C,Time!D:D,Tasks!D38)</f>
+        <v>0.5</v>
+      </c>
+      <c r="I38" s="12">
+        <f>IF(G38+H38&gt;0,H38/(H38+G38),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C39" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="D39" s="11">
+        <v>35</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="F39" s="11">
+        <v>5</v>
+      </c>
+      <c r="G39" s="11">
+        <v>5</v>
+      </c>
+      <c r="H39" s="11">
+        <f>SUMIFS(Time!C:C,Time!D:D,Tasks!D39)</f>
+        <v>0</v>
+      </c>
+      <c r="I39" s="12">
+        <f t="shared" ref="I39:I57" si="10">IF(G39+H39&gt;0,H39/(H39+G39),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C40" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="D40" s="8">
+        <v>36</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F40" s="8">
+        <v>1</v>
+      </c>
+      <c r="G40" s="8">
+        <v>1</v>
+      </c>
+      <c r="H40" s="8">
+        <f>SUMIFS(Time!C:C,Time!D:D,Tasks!D40)</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C41" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="D41" s="8">
+        <v>37</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F41" s="8">
+        <v>2</v>
+      </c>
+      <c r="G41" s="8">
+        <v>2</v>
+      </c>
+      <c r="H41" s="8">
+        <f>SUMIFS(Time!C:C,Time!D:D,Tasks!D41)</f>
+        <v>0</v>
+      </c>
+      <c r="I41" s="9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C42" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="D42" s="11">
+        <v>38</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F42" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="G42" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="H42" s="11">
+        <f>SUMIFS(Time!C:C,Time!D:D,Tasks!D42)</f>
+        <v>0</v>
+      </c>
+      <c r="I42" s="12">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C43" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="D43" s="11">
+        <v>39</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="F43" s="11">
+        <v>2</v>
+      </c>
+      <c r="G43" s="11">
+        <v>2</v>
+      </c>
+      <c r="H43" s="11">
+        <f>SUMIFS(Time!C:C,Time!D:D,Tasks!D43)</f>
+        <v>0</v>
+      </c>
+      <c r="I43" s="12">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="D44" s="8">
+        <v>40</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F44" s="8">
         <v>8</v>
       </c>
-      <c r="I35" s="9">
-        <f t="shared" ref="I35:I37" si="8">IF(G35+H35&gt;0,H35/(H35+G35),0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C36" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>DONE</v>
-      </c>
-      <c r="D36" s="8">
-        <v>32</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F36" s="8">
-        <v>4</v>
-      </c>
-      <c r="G36" s="8">
-        <v>0</v>
-      </c>
-      <c r="H36" s="8">
-        <f>SUMIFS(Time!C:C,Time!D:D,Tasks!D36)</f>
-        <v>4</v>
-      </c>
-      <c r="I36" s="9">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C37" s="10" t="str">
-        <f>IF(OR(I37=100%,G37=0),"DONE",IF(I37&gt;0,"IN PROGRESS",""))</f>
-        <v>DONE</v>
-      </c>
-      <c r="D37" s="11">
-        <v>33</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="F37" s="11">
-        <v>0</v>
-      </c>
-      <c r="G37" s="11">
-        <v>0</v>
-      </c>
-      <c r="H37" s="11">
-        <f>SUMIFS(Time!C:C,Time!D:D,Tasks!D37)</f>
-        <v>0</v>
-      </c>
-      <c r="I37" s="12">
-        <f t="shared" si="8"/>
+      <c r="G44" s="8">
+        <v>8</v>
+      </c>
+      <c r="H44" s="8">
+        <f>SUMIFS(Time!C:C,Time!D:D,Tasks!D44)</f>
+        <v>0</v>
+      </c>
+      <c r="I44" s="9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C45" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="D45" s="8">
+        <v>41</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F45" s="8">
+        <v>1</v>
+      </c>
+      <c r="G45" s="8">
+        <v>1</v>
+      </c>
+      <c r="H45" s="8">
+        <f>SUMIFS(Time!C:C,Time!D:D,Tasks!D45)</f>
+        <v>0</v>
+      </c>
+      <c r="I45" s="9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C46" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="D46" s="11">
+        <v>42</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F46" s="11">
+        <v>1</v>
+      </c>
+      <c r="G46" s="11">
+        <v>1</v>
+      </c>
+      <c r="H46" s="11">
+        <f>SUMIFS(Time!C:C,Time!D:D,Tasks!D46)</f>
+        <v>0</v>
+      </c>
+      <c r="I46" s="12">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C47" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="D47" s="11">
+        <v>43</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F47" s="11">
+        <v>6</v>
+      </c>
+      <c r="G47" s="11">
+        <v>6</v>
+      </c>
+      <c r="H47" s="11">
+        <f>SUMIFS(Time!C:C,Time!D:D,Tasks!D47)</f>
+        <v>0</v>
+      </c>
+      <c r="I47" s="12">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="D48" s="8">
+        <v>44</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F48" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G48" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="H48" s="8">
+        <f>SUMIFS(Time!C:C,Time!D:D,Tasks!D48)</f>
+        <v>0</v>
+      </c>
+      <c r="I48" s="9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C49" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="D49" s="8">
+        <v>45</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F49" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="G49" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="H49" s="8">
+        <f>SUMIFS(Time!C:C,Time!D:D,Tasks!D49)</f>
+        <v>0</v>
+      </c>
+      <c r="I49" s="9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C50" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="D50" s="11">
+        <v>46</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F50" s="11">
+        <v>8</v>
+      </c>
+      <c r="G50" s="11">
+        <v>8</v>
+      </c>
+      <c r="H50" s="11">
+        <f>SUMIFS(Time!C:C,Time!D:D,Tasks!D50)</f>
+        <v>0</v>
+      </c>
+      <c r="I50" s="12">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C51" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="D51" s="11">
+        <v>47</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F51" s="11">
+        <v>1</v>
+      </c>
+      <c r="G51" s="11">
+        <v>1</v>
+      </c>
+      <c r="H51" s="11">
+        <f>SUMIFS(Time!C:C,Time!D:D,Tasks!D51)</f>
+        <v>0</v>
+      </c>
+      <c r="I51" s="12">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="D52" s="8">
+        <v>48</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F52" s="8">
+        <v>2</v>
+      </c>
+      <c r="G52" s="8">
+        <v>2</v>
+      </c>
+      <c r="H52" s="8">
+        <f>SUMIFS(Time!C:C,Time!D:D,Tasks!D52)</f>
+        <v>0</v>
+      </c>
+      <c r="I52" s="9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C53" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="D53" s="8">
+        <v>49</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F53" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="G53" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="H53" s="8">
+        <f>SUMIFS(Time!C:C,Time!D:D,Tasks!D53)</f>
+        <v>0</v>
+      </c>
+      <c r="I53" s="9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C54" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="D54" s="11">
+        <v>50</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="F54" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="G54" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="H54" s="11">
+        <f>SUMIFS(Time!C:C,Time!D:D,Tasks!D54)</f>
+        <v>0</v>
+      </c>
+      <c r="I54" s="12">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C55" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="D55" s="11">
+        <v>51</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F55" s="11">
+        <v>5</v>
+      </c>
+      <c r="G55" s="11">
+        <v>5</v>
+      </c>
+      <c r="H55" s="11">
+        <f>SUMIFS(Time!C:C,Time!D:D,Tasks!D55)</f>
+        <v>0</v>
+      </c>
+      <c r="I55" s="12">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C56" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="D56" s="8">
+        <v>52</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F56" s="8">
+        <v>25</v>
+      </c>
+      <c r="G56" s="8">
+        <v>25</v>
+      </c>
+      <c r="H56" s="8">
+        <f>SUMIFS(Time!C:C,Time!D:D,Tasks!D56)</f>
+        <v>0</v>
+      </c>
+      <c r="I56" s="9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C57" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="D57" s="8">
+        <v>53</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F57" s="8">
+        <v>3</v>
+      </c>
+      <c r="G57" s="8">
+        <v>3</v>
+      </c>
+      <c r="H57" s="8">
+        <f>SUMIFS(Time!C:C,Time!D:D,Tasks!D57)</f>
+        <v>0</v>
+      </c>
+      <c r="I57" s="9">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:I2"/>
-  <mergeCells count="1">
-    <mergeCell ref="B16:I16"/>
+  <autoFilter ref="B1:I1"/>
+  <mergeCells count="2">
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B37:I37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4046,10 +4777,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N30"/>
+  <dimension ref="B1:N45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4070,22 +4801,22 @@
   <sheetData>
     <row r="1" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:14" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
-      <c r="G2" s="39" t="s">
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="46"/>
+      <c r="G2" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="41"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="46"/>
     </row>
     <row r="3" spans="2:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="17" t="s">
@@ -4291,10 +5022,10 @@
       </c>
     </row>
     <row r="12" spans="2:14" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="36"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="43"/>
     </row>
     <row r="13" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
@@ -4315,22 +5046,22 @@
     </row>
     <row r="16" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:14" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="41"/>
-      <c r="G17" s="39" t="s">
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="46"/>
+      <c r="G17" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="41"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="46"/>
     </row>
     <row r="18" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B18" s="17" t="s">
@@ -4390,31 +5121,30 @@
         <v>42604</v>
       </c>
       <c r="H19" s="31">
-        <f ca="1">TODAY()</f>
-        <v>42660</v>
+        <v>42662</v>
       </c>
       <c r="I19" s="31">
         <v>42662</v>
       </c>
       <c r="J19" s="28">
-        <f ca="1">H19-G19</f>
-        <v>56</v>
+        <f>H19-G19</f>
+        <v>58</v>
       </c>
       <c r="K19" s="28">
-        <f ca="1">I19-H19</f>
-        <v>2</v>
+        <f>I19-H19</f>
+        <v>0</v>
       </c>
       <c r="L19" s="29">
-        <f ca="1">J19/(J19+K19)</f>
-        <v>0.96551724137931039</v>
+        <f>J19/(J19+K19)</f>
+        <v>1</v>
       </c>
       <c r="M19" s="32">
-        <f ca="1">E30-L19</f>
-        <v>3.4482758620689613E-2</v>
+        <f>E30-L19</f>
+        <v>0</v>
       </c>
       <c r="N19" s="27">
-        <f ca="1">M19*(J19+K19)</f>
-        <v>1.9999999999999976</v>
+        <f>M19*(J19+K19)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
@@ -4542,7 +5272,7 @@
       </c>
       <c r="C27" s="1">
         <f>SUMIFS(Tasks!H:H,Tasks!E:E,B27)</f>
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="D27" s="1">
         <f>SUMIFS(Tasks!G:G,Tasks!E:E,B27)</f>
@@ -4571,10 +5301,10 @@
       </c>
     </row>
     <row r="29" spans="2:14" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="36"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="38"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="43"/>
     </row>
     <row r="30" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
@@ -4582,7 +5312,7 @@
       </c>
       <c r="C30" s="5">
         <f>SUM(C19:C28)</f>
-        <v>59.9</v>
+        <v>61.4</v>
       </c>
       <c r="D30" s="5">
         <f>SUM(D19:D28)</f>
@@ -4593,8 +5323,257 @@
         <v>1</v>
       </c>
     </row>
+    <row r="33" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="46"/>
+      <c r="G34" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="H34" s="45"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="45"/>
+      <c r="N34" s="46"/>
+    </row>
+    <row r="35" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B35" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="H35" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="I35" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="J35" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="K35" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="L35" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="M35" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="N35" s="26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C36" s="1">
+        <f>SUMIFS(Tasks!H:H,Tasks!E:E,B36)</f>
+        <v>0.5</v>
+      </c>
+      <c r="D36" s="1">
+        <f>SUMIFS(Tasks!G:G,Tasks!E:E,B36)</f>
+        <v>5</v>
+      </c>
+      <c r="E36" s="3">
+        <f>IF(D36+C36&gt;0,C36/(C36+D36),0)</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="G36" s="30">
+        <v>42662</v>
+      </c>
+      <c r="H36" s="31">
+        <f ca="1">TODAY()</f>
+        <v>42665</v>
+      </c>
+      <c r="I36" s="31">
+        <v>42717</v>
+      </c>
+      <c r="J36" s="28">
+        <f ca="1">H36-G36</f>
+        <v>3</v>
+      </c>
+      <c r="K36" s="28">
+        <f ca="1">I36-H36</f>
+        <v>52</v>
+      </c>
+      <c r="L36" s="29">
+        <f ca="1">J36/(J36+K36)</f>
+        <v>5.4545454545454543E-2</v>
+      </c>
+      <c r="M36" s="32">
+        <f ca="1">E45-L36</f>
+        <v>-4.7966507177033491E-2</v>
+      </c>
+      <c r="N36" s="27">
+        <f ca="1">M36*(J36+K36)</f>
+        <v>-2.638157894736842</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" s="1">
+        <f>SUMIFS(Tasks!H:H,Tasks!E:E,B37)</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <f>SUMIFS(Tasks!G:G,Tasks!E:E,B37)</f>
+        <v>3.5</v>
+      </c>
+      <c r="E37" s="3">
+        <f>IF(D37+C37&gt;0,C37/(C37+D37),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C38" s="21">
+        <f>SUMIFS(Tasks!H:H,Tasks!E:E,B38)</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="21">
+        <f>SUMIFS(Tasks!G:G,Tasks!E:E,B38)</f>
+        <v>11</v>
+      </c>
+      <c r="E38" s="22">
+        <f t="shared" ref="E38:E43" si="5">IF(D38+C38&gt;0,C38/(C38+D38),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C39" s="21">
+        <f>SUMIFS(Tasks!H:H,Tasks!E:E,B39)</f>
+        <v>0</v>
+      </c>
+      <c r="D39" s="21">
+        <f>SUMIFS(Tasks!G:G,Tasks!E:E,B39)</f>
+        <v>7.5</v>
+      </c>
+      <c r="E39" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C40" s="1">
+        <f>SUMIFS(Tasks!H:H,Tasks!E:E,B40)</f>
+        <v>0</v>
+      </c>
+      <c r="D40" s="1">
+        <f>SUMIFS(Tasks!G:G,Tasks!E:E,B40)</f>
+        <v>10.5</v>
+      </c>
+      <c r="E40" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C41" s="1">
+        <f>SUMIFS(Tasks!H:H,Tasks!E:E,B41)</f>
+        <v>0</v>
+      </c>
+      <c r="D41" s="1">
+        <f>SUMIFS(Tasks!G:G,Tasks!E:E,B41)</f>
+        <v>5</v>
+      </c>
+      <c r="E41" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B42" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42" s="21">
+        <f>SUMIFS(Tasks!H:H,Tasks!E:E,B42)</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="21">
+        <f>SUMIFS(Tasks!G:G,Tasks!E:E,B42)</f>
+        <v>30</v>
+      </c>
+      <c r="E42" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B43" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C43" s="21">
+        <f>SUMIFS(Tasks!H:H,Tasks!E:E,B43)</f>
+        <v>0</v>
+      </c>
+      <c r="D43" s="21">
+        <f>SUMIFS(Tasks!G:G,Tasks!E:E,B43)</f>
+        <v>3</v>
+      </c>
+      <c r="E43" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B44" s="41"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="43"/>
+    </row>
+    <row r="45" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="5">
+        <f>SUM(C36:C43)</f>
+        <v>0.5</v>
+      </c>
+      <c r="D45" s="5">
+        <f>SUM(D36:D43)</f>
+        <v>75.5</v>
+      </c>
+      <c r="E45" s="6">
+        <f>IF(D45+C45&gt;0,C45/(C45+D45),0)</f>
+        <v>6.5789473684210523E-3</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="G34:N34"/>
+    <mergeCell ref="B44:E44"/>
     <mergeCell ref="B29:E29"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B2:E2"/>
@@ -4603,6 +5582,22 @@
     <mergeCell ref="G17:N17"/>
   </mergeCells>
   <conditionalFormatting sqref="M4">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N4">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M19">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -4610,7 +5605,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N4">
+  <conditionalFormatting sqref="N19">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -4618,7 +5613,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M19">
+  <conditionalFormatting sqref="M36">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -4626,7 +5621,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N19">
+  <conditionalFormatting sqref="N36">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
